--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34320" windowHeight="21460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34320" windowHeight="21460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Env.ThreadPool" sheetId="1" r:id="rId1"/>
+    <sheet name="20-20" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="83">
   <si>
     <t>&lt;1-4</t>
   </si>
@@ -305,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +325,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -337,16 +344,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -628,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="AC48" sqref="AC48"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="W58" sqref="W58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,68 +663,68 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:28" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="7">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="7">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="7">
         <v>3</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="7">
         <v>4</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="7">
         <v>5</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="7">
         <v>6</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="7">
         <v>7</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="7">
         <v>8</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="7">
         <v>9</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="7">
         <v>10</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="7">
         <v>11</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="7">
         <v>12</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="7">
         <v>13</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="7">
         <v>14</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="7">
         <v>15</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="7">
         <v>16</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="7">
         <v>17</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="7">
         <v>18</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="7">
         <v>19</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="7">
         <v>20</v>
       </c>
     </row>
@@ -736,12 +762,12 @@
         <v>4</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="Y6" s="5" t="s">
+      <c r="Y6" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
@@ -752,10 +778,10 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -791,12 +817,12 @@
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="Y10" s="6" t="s">
+      <c r="Y10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="6"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
@@ -808,10 +834,10 @@
       <c r="I11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
@@ -1467,4 +1493,2644 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="AI59" sqref="AI59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="7">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7">
+        <v>13</v>
+      </c>
+      <c r="O1" s="7">
+        <v>14</v>
+      </c>
+      <c r="P1" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="7">
+        <v>16</v>
+      </c>
+      <c r="R1" s="7">
+        <v>17</v>
+      </c>
+      <c r="S1" s="7">
+        <v>18</v>
+      </c>
+      <c r="T1" s="7">
+        <v>19</v>
+      </c>
+      <c r="U1" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+    </row>
+    <row r="5" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+    </row>
+    <row r="6" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="Y6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+    </row>
+    <row r="7" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+    </row>
+    <row r="8" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="6"/>
+    </row>
+    <row r="10" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="6"/>
+      <c r="Y10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+    </row>
+    <row r="11" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="10"/>
+      <c r="V11" s="6"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+    </row>
+    <row r="12" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="6"/>
+    </row>
+    <row r="14" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="6"/>
+    </row>
+    <row r="15" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="6"/>
+    </row>
+    <row r="16" spans="1:28" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="6"/>
+    </row>
+    <row r="17" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="6"/>
+    </row>
+    <row r="18" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="10"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="6"/>
+    </row>
+    <row r="19" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" s="6"/>
+    </row>
+    <row r="20" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+    </row>
+    <row r="21" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="6"/>
+    </row>
+    <row r="22" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+    </row>
+    <row r="23" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+    </row>
+    <row r="27" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+    </row>
+    <row r="28" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+    </row>
+    <row r="29" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="5"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+    </row>
+    <row r="31" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+    </row>
+    <row r="32" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+    </row>
+    <row r="33" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+    </row>
+    <row r="34" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L34" s="5"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+    </row>
+    <row r="35" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T35" s="5"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+    </row>
+    <row r="36" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+    </row>
+    <row r="37" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="6"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="N39" s="6"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="6"/>
+    </row>
+    <row r="40" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="6"/>
+    </row>
+    <row r="41" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O41" s="10"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="6"/>
+    </row>
+    <row r="42" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="6"/>
+    </row>
+    <row r="43" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="6"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="5"/>
+      <c r="U43" s="6"/>
+    </row>
+    <row r="44" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="6"/>
+    </row>
+    <row r="45" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="S45" s="10"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="6"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="5"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T47" s="5"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="5"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="5"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="5"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="10"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="5"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R51" s="2"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="5"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="10"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V52" s="5"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="5"/>
+    </row>
+    <row r="54" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="5"/>
+    </row>
+    <row r="55" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55" s="10"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="5"/>
+    </row>
+    <row r="56" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="5"/>
+    </row>
+    <row r="57" spans="1:22" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="V57" s="5"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="R58" s="2"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="5"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="5"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="5"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="5"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J63" s="10"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="5"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="5"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="5"/>
+      <c r="U66" s="5"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="5"/>
+      <c r="U67" s="5"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5"/>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="R69" s="2"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="5"/>
+      <c r="U69" s="10"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="10"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O71" s="5"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="10"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S72" s="5"/>
+      <c r="T72" s="5"/>
+      <c r="U72" s="10"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="5"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="5"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5"/>
+      <c r="U73" s="10"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="10"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="10"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="5"/>
+      <c r="U76" s="10"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="10"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="5"/>
+      <c r="U78" s="10"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="5"/>
+      <c r="U79" s="10"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T80" s="5"/>
+      <c r="U80" s="10"/>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="U81" s="10"/>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T82" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="481">
+    <mergeCell ref="V58:V59"/>
+    <mergeCell ref="V60:V61"/>
+    <mergeCell ref="V62:V63"/>
+    <mergeCell ref="V64:V65"/>
+    <mergeCell ref="V46:V47"/>
+    <mergeCell ref="V48:V49"/>
+    <mergeCell ref="V50:V51"/>
+    <mergeCell ref="V52:V53"/>
+    <mergeCell ref="V54:V55"/>
+    <mergeCell ref="V56:V57"/>
+    <mergeCell ref="T79:T80"/>
+    <mergeCell ref="T81:T82"/>
+    <mergeCell ref="U57:U58"/>
+    <mergeCell ref="U59:U60"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="U65:U66"/>
+    <mergeCell ref="U67:U68"/>
+    <mergeCell ref="T67:T68"/>
+    <mergeCell ref="T69:T70"/>
+    <mergeCell ref="T71:T72"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="T75:T76"/>
+    <mergeCell ref="T77:T78"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="T57:T58"/>
+    <mergeCell ref="T59:T60"/>
+    <mergeCell ref="T61:T62"/>
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="T65:T66"/>
+    <mergeCell ref="T43:T44"/>
+    <mergeCell ref="T45:T46"/>
+    <mergeCell ref="T47:T48"/>
+    <mergeCell ref="T49:T50"/>
+    <mergeCell ref="T51:T52"/>
+    <mergeCell ref="T53:T54"/>
+    <mergeCell ref="S71:S72"/>
+    <mergeCell ref="S73:S74"/>
+    <mergeCell ref="S75:S76"/>
+    <mergeCell ref="S77:S78"/>
+    <mergeCell ref="S79:S80"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="T35:T36"/>
+    <mergeCell ref="T37:T38"/>
+    <mergeCell ref="T39:T40"/>
+    <mergeCell ref="T41:T42"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="S67:S68"/>
+    <mergeCell ref="S69:S70"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="S53:S54"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="P63:P64"/>
+    <mergeCell ref="P65:P66"/>
+    <mergeCell ref="P67:P68"/>
+    <mergeCell ref="P69:P70"/>
+    <mergeCell ref="Q58:Q59"/>
+    <mergeCell ref="Q60:Q61"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="O70:O71"/>
+    <mergeCell ref="O72:O73"/>
+    <mergeCell ref="O74:O75"/>
+    <mergeCell ref="P49:P50"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="P57:P58"/>
+    <mergeCell ref="P59:P60"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="O58:O59"/>
+    <mergeCell ref="O60:O61"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="O44:O45"/>
+    <mergeCell ref="O46:O47"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="O50:O51"/>
+    <mergeCell ref="O52:O53"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="O56:O57"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="M61:M62"/>
+    <mergeCell ref="M63:M64"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="H67:H68"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="H73:H74"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="H57:H58"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="V33:V34"/>
+    <mergeCell ref="V35:V36"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="V21:V22"/>
+    <mergeCell ref="V23:V24"/>
+    <mergeCell ref="V25:V26"/>
+    <mergeCell ref="V27:V28"/>
+    <mergeCell ref="V29:V30"/>
+    <mergeCell ref="U46:U47"/>
+    <mergeCell ref="U48:U49"/>
+    <mergeCell ref="U50:U51"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="V13:V14"/>
+    <mergeCell ref="V15:V16"/>
+    <mergeCell ref="V17:V18"/>
+    <mergeCell ref="U34:U35"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="U40:U41"/>
+    <mergeCell ref="U42:U43"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="T29:T30"/>
+    <mergeCell ref="T31:T32"/>
+    <mergeCell ref="U22:U23"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="U26:U27"/>
+    <mergeCell ref="U28:U29"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="U32:U33"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="T21:T22"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="T25:T26"/>
+    <mergeCell ref="T27:T28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="S29:S30"/>
+    <mergeCell ref="S31:S32"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="T13:T14"/>
+    <mergeCell ref="T15:T16"/>
+    <mergeCell ref="R48:R49"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="S23:S24"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="R36:R37"/>
+    <mergeCell ref="R38:R39"/>
+    <mergeCell ref="R40:R41"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="R46:R47"/>
+    <mergeCell ref="Q48:Q49"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="R22:R23"/>
+    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="R28:R29"/>
+    <mergeCell ref="R30:R31"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="Q40:Q41"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="Q46:Q47"/>
+    <mergeCell ref="P41:P42"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="Q30:Q31"/>
+    <mergeCell ref="Q32:Q33"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="P29:P30"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="P35:P36"/>
+    <mergeCell ref="P37:P38"/>
+    <mergeCell ref="P39:P40"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="P23:P24"/>
+    <mergeCell ref="P25:P26"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="P13:P14"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O15"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="Y6:AB7"/>
+    <mergeCell ref="Y10:AB11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>